--- a/results/mp/logistic/toy-spam/confidence/84/stop-words-topk-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/toy-spam/confidence/84/stop-words-topk-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,34 +40,37 @@
     <t>name</t>
   </si>
   <si>
+    <t>waste</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>waste</t>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>broke</t>
   </si>
   <si>
     <t>poor</t>
   </si>
   <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
     <t>disappointing</t>
   </si>
   <si>
-    <t>disappointed</t>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>return</t>
   </si>
   <si>
     <t>poorly</t>
   </si>
   <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>return</t>
+    <t>however</t>
   </si>
   <si>
     <t>paid</t>
@@ -76,82 +79,88 @@
     <t>ok</t>
   </si>
   <si>
-    <t>however</t>
+    <t>water</t>
+  </si>
+  <si>
+    <t>okay</t>
   </si>
   <si>
     <t>pay</t>
   </si>
   <si>
-    <t>okay</t>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>junk</t>
   </si>
   <si>
     <t>maybe</t>
   </si>
   <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>junk</t>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>light</t>
   </si>
   <si>
     <t>paint</t>
   </si>
   <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>interest</t>
-  </si>
-  <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>light</t>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>thought</t>
   </si>
   <si>
     <t>sound</t>
   </si>
   <si>
-    <t>picture</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
-    <t>piece</t>
+    <t>worked</t>
   </si>
   <si>
     <t>minutes</t>
   </si>
   <si>
+    <t>broken</t>
+  </si>
+  <si>
     <t>work</t>
   </si>
   <si>
-    <t>worked</t>
-  </si>
-  <si>
     <t>smaller</t>
   </si>
   <si>
+    <t>way</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
-    <t>way</t>
+    <t>hard</t>
   </si>
   <si>
     <t>money</t>
   </si>
   <si>
-    <t>hard</t>
+    <t>product</t>
   </si>
   <si>
     <t>would</t>
@@ -160,9 +169,6 @@
     <t>made</t>
   </si>
   <si>
-    <t>product</t>
-  </si>
-  <si>
     <t>toy</t>
   </si>
   <si>
@@ -194,9 +200,6 @@
   </si>
   <si>
     <t>great</t>
-  </si>
-  <si>
-    <t>perfect</t>
   </si>
   <si>
     <t>family</t>
@@ -566,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -574,10 +577,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -635,13 +638,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9527027027027027</v>
       </c>
       <c r="C3">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="D3">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -653,19 +656,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K3">
-        <v>0.6153846153846154</v>
+        <v>0.676923076923077</v>
       </c>
       <c r="L3">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -677,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -685,13 +688,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9594594594594594</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="C4">
-        <v>142</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>142</v>
+        <v>36</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -703,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K4">
         <v>0.4528301886792453</v>
@@ -735,13 +738,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9436619718309859</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="C5">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="D5">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -753,19 +756,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K5">
-        <v>0.4155844155844156</v>
+        <v>0.4415584415584415</v>
       </c>
       <c r="L5">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M5">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -777,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -785,13 +788,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9428571428571428</v>
+        <v>0.9301075268817204</v>
       </c>
       <c r="C6">
-        <v>33</v>
+        <v>173</v>
       </c>
       <c r="D6">
-        <v>33</v>
+        <v>173</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -803,19 +806,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K6">
-        <v>0.40625</v>
+        <v>0.421875</v>
       </c>
       <c r="L6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M6">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -827,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -835,13 +838,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9320388349514563</v>
+        <v>0.9271844660194175</v>
       </c>
       <c r="C7">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D7">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -853,19 +856,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K7">
-        <v>0.3333333333333333</v>
+        <v>0.3870967741935484</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -877,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -885,13 +888,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9318181818181818</v>
+        <v>0.8873239436619719</v>
       </c>
       <c r="C8">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="D8">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -903,19 +906,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K8">
-        <v>0.2717842323651452</v>
+        <v>0.2614107883817428</v>
       </c>
       <c r="L8">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="M8">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -927,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>351</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -935,13 +938,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8924731182795699</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="C9">
-        <v>166</v>
+        <v>39</v>
       </c>
       <c r="D9">
-        <v>166</v>
+        <v>39</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -953,19 +956,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K9">
-        <v>0.2352941176470588</v>
+        <v>0.2338593974175036</v>
       </c>
       <c r="L9">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M9">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -977,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -985,13 +988,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8913043478260869</v>
+        <v>0.8736842105263158</v>
       </c>
       <c r="C10">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="D10">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1003,19 +1006,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K10">
-        <v>0.2201834862385321</v>
+        <v>0.2048929663608563</v>
       </c>
       <c r="L10">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="M10">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1027,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1035,13 +1038,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8736842105263158</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="C11">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="D11">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1053,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K11">
-        <v>0.1616078753076292</v>
+        <v>0.1410992616899098</v>
       </c>
       <c r="L11">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="M11">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="N11">
         <v>0.99</v>
@@ -1077,7 +1080,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>1022</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1085,13 +1088,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8709677419354839</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="C12">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D12">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1103,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K12">
-        <v>0.1506024096385542</v>
+        <v>0.0947075208913649</v>
       </c>
       <c r="L12">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M12">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1127,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>141</v>
+        <v>325</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1135,13 +1138,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7894736842105263</v>
+        <v>0.78125</v>
       </c>
       <c r="C13">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1153,19 +1156,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K13">
-        <v>0.09192200557103064</v>
+        <v>0.06878650227125244</v>
       </c>
       <c r="L13">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="M13">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1177,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>326</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1185,13 +1188,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7890625</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C14">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="D14">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1203,19 +1206,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K14">
-        <v>0.06878650227125244</v>
+        <v>0.06047326906222612</v>
       </c>
       <c r="L14">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="M14">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1227,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1435</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1238,10 +1241,10 @@
         <v>0.75</v>
       </c>
       <c r="C15">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="D15">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1253,31 +1256,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>16</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K15">
-        <v>0.04645048203330412</v>
-      </c>
-      <c r="L15">
-        <v>53</v>
-      </c>
-      <c r="M15">
-        <v>53</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>1088</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1285,13 +1264,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6666666666666666</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C16">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D16">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1303,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1311,13 +1290,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6666666666666666</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="C17">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D17">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1329,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1337,13 +1316,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6428571428571429</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="C18">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D18">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1355,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1389,13 +1368,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6065573770491803</v>
+        <v>0.6229508196721312</v>
       </c>
       <c r="C20">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D20">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1407,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1415,13 +1394,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5636363636363636</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="C21">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D21">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1433,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1441,13 +1420,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5555555555555556</v>
+        <v>0.575</v>
       </c>
       <c r="C22">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D22">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1459,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1470,10 +1449,10 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="C23">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D23">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1485,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1493,13 +1472,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.55</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C24">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D24">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1511,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1519,7 +1498,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5</v>
+        <v>0.5178571428571429</v>
       </c>
       <c r="C25">
         <v>29</v>
@@ -1537,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1545,13 +1524,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4976303317535545</v>
+        <v>0.5118483412322274</v>
       </c>
       <c r="C26">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D26">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1563,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1571,13 +1550,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4285714285714285</v>
+        <v>0.4821428571428572</v>
       </c>
       <c r="C27">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D27">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1589,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1597,13 +1576,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4057971014492754</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="C28">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D28">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1615,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1623,13 +1602,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3917525773195876</v>
+        <v>0.422680412371134</v>
       </c>
       <c r="C29">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D29">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1641,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1649,13 +1628,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3762376237623762</v>
+        <v>0.3902439024390244</v>
       </c>
       <c r="C30">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="D30">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1667,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>126</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1675,13 +1654,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3565217391304348</v>
+        <v>0.3712871287128713</v>
       </c>
       <c r="C31">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="D31">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1693,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>222</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1701,13 +1680,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3536585365853658</v>
+        <v>0.3623188405797101</v>
       </c>
       <c r="C32">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D32">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1719,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1727,13 +1706,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2972972972972973</v>
+        <v>0.3420289855072464</v>
       </c>
       <c r="C33">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="D33">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1745,7 +1724,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>52</v>
+        <v>227</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1753,13 +1732,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2848101265822785</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C34">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="D34">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1771,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>226</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1779,13 +1758,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2592592592592592</v>
+        <v>0.2972972972972973</v>
       </c>
       <c r="C35">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D35">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1797,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>80</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1805,13 +1784,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2521008403361344</v>
+        <v>0.2891566265060241</v>
       </c>
       <c r="C36">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D36">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1823,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>89</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1831,13 +1810,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1485507246376812</v>
+        <v>0.2784810126582278</v>
       </c>
       <c r="C37">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="D37">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1849,7 +1828,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1857,13 +1836,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1403508771929824</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="C38">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D38">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1875,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>147</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1883,13 +1862,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1360759493670886</v>
+        <v>0.1754385964912281</v>
       </c>
       <c r="C39">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D39">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1901,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>273</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1909,13 +1888,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.12</v>
+        <v>0.1485507246376812</v>
       </c>
       <c r="C40">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D40">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1927,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>176</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1935,25 +1914,25 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.09212481426448738</v>
+        <v>0.145</v>
       </c>
       <c r="C41">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="D41">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="E41">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>611</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1961,13 +1940,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.09148264984227129</v>
+        <v>0.1329113924050633</v>
       </c>
       <c r="C42">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D42">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1979,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>288</v>
+        <v>274</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1987,13 +1966,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.08149779735682819</v>
+        <v>0.0881057268722467</v>
       </c>
       <c r="C43">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D43">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2005,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2013,25 +1992,77 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.03969465648854962</v>
+        <v>0.08320950965824665</v>
       </c>
       <c r="C44">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="D44">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>629</v>
+        <v>617</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>0.07278481012658228</v>
+      </c>
+      <c r="C45">
+        <v>23</v>
+      </c>
+      <c r="D45">
+        <v>24</v>
+      </c>
+      <c r="E45">
+        <v>0.04</v>
+      </c>
+      <c r="F45">
+        <v>0.96</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>0.03816793893129771</v>
+      </c>
+      <c r="C46">
+        <v>25</v>
+      </c>
+      <c r="D46">
+        <v>25</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>630</v>
       </c>
     </row>
   </sheetData>
